--- a/biology/Zoologie/Ceratomia_igualana/Ceratomia_igualana.xlsx
+++ b/biology/Zoologie/Ceratomia_igualana/Ceratomia_igualana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratomia igualana, est une espèce insectes lépidoptères (papillons) de la famille des Sphingidae, de la sous-famille des Sphinginae et de la tribu des Sphingini.  
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L' envergure est de 51–56 mm pour les mâles et d'environ 65 mm pour les femelles.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
 L'espèce est connue au Mexique, au Costa Rica.
@@ -574,7 +590,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Seul un petit nombre a été capturé et la biologie de cette espèce est mal connue.
 </t>
@@ -605,11 +623,47 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par l'entomologiste américain William Schaus en 1932, sous le nom initial de Dolbogene igualana.
-Synonymie
-Dolbogene igualana Schaus, 1932 protonyme</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce a été décrite par l'entomologiste américain William Schaus en 1932, sous le nom initial de Dolbogene igualana.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ceratomia_igualana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratomia_igualana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dolbogene igualana Schaus, 1932 protonyme</t>
         </is>
       </c>
     </row>
